--- a/dsm22.xlsx
+++ b/dsm22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/myLA558-cjseeger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06EC808-0177-4847-ADB2-C4E665FEDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2BD7C5-4B70-244A-BC39-296E3611127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6920" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Chart</t>
   </si>
@@ -248,6 +248,51 @@
   </si>
   <si>
     <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,6 +1980,171 @@
         <v>52</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2">
+        <v>67</v>
+      </c>
+      <c r="C75" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2">
+        <v>74</v>
+      </c>
+      <c r="C76" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2">
+        <v>72</v>
+      </c>
+      <c r="C77" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
+        <v>85</v>
+      </c>
+      <c r="C78" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
+        <v>68</v>
+      </c>
+      <c r="C79" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
+        <v>49</v>
+      </c>
+      <c r="C80" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2">
+        <v>60</v>
+      </c>
+      <c r="C81" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
+        <v>72</v>
+      </c>
+      <c r="C82" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
+        <v>63</v>
+      </c>
+      <c r="C83" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2">
+        <v>67</v>
+      </c>
+      <c r="C84" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2">
+        <v>70</v>
+      </c>
+      <c r="C85" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2">
+        <v>70</v>
+      </c>
+      <c r="C86" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2">
+        <v>59</v>
+      </c>
+      <c r="C87" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2">
+        <v>63</v>
+      </c>
+      <c r="C88" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>69</v>
+      </c>
+      <c r="C89" s="2">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
